--- a/biology/Zoologie/Canard_de_Salvadori/Canard_de_Salvadori.xlsx
+++ b/biology/Zoologie/Canard_de_Salvadori/Canard_de_Salvadori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salvadorina waigiuensis
 Le Canard de Salvadori (Salvadorina waigiuensis) est une espèce de canard de la famille des anatidés. C'est la seule espèce du genre Salvadorina. Il est parfois placé dans le genre Anas.
@@ -512,7 +524,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette espèce dans les montagnes de Nouvelle-Guinée entre 500 et 3 700 mètres d'altitude. Elle fréquente aussi bien les lacs de montagne que les torrents. Il s'agit de la seule espèce de canard endémique de Nouvelle-Guinée.
 </t>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom français de cette espèce commémore le comte Adelaro Tommaso Paleotti Salvadori (1835-1923), médecin, pédagogue, écrivain et ornithologue italien.
 </t>
